--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510132.259304798</v>
+        <v>506850.5914291598</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573252.270349381</v>
+        <v>5573252.270349382</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>69.3421217705996</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.36172263168805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>1.809496073036188</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,67 +1136,67 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>57.35516313269014</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>205.3482685876799</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1421,13 +1421,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1467,7 +1467,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>12.97775772608097</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>61.60419870090059</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,70 +1844,70 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>90.91642501047005</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,58 +2090,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>182.7004482653351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="22">
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2324,67 +2324,67 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="25">
@@ -2573,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>99.13012673870388</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="28">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,68 +2789,68 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>42.45964176806547</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.05674881342119</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3029,11 +3029,11 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>27.4440772567387</v>
       </c>
       <c r="G33" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3208,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.9473473740017</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>155.1862886239755</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>79.41714906066387</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,55 +3664,55 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,64 +3743,64 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>70.34400780127524</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>127.0792623895659</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,70 +3977,70 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>142.0301974140378</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>63.9067613594508</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="4">
@@ -4483,7 +4483,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I5" t="n">
-        <v>21.10891692136039</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>341.0228630172405</v>
+        <v>251.6686806061783</v>
       </c>
       <c r="C9" t="n">
-        <v>166.5698337361135</v>
+        <v>77.21565132505125</v>
       </c>
       <c r="D9" t="n">
-        <v>166.5698337361135</v>
+        <v>77.21565132505125</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4887,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>756.6346619877272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>548.7831617821944</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y9" t="n">
-        <v>341.0228630172405</v>
+        <v>419.8840176262463</v>
       </c>
     </row>
     <row r="10">
@@ -4993,10 +4993,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,22 +5121,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5221,16 +5221,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.9965798960495</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C15" t="n">
-        <v>304.9965798960495</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D15" t="n">
-        <v>291.8877337080889</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5361,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5391,16 +5391,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>901.8306921763932</v>
       </c>
       <c r="W15" t="n">
-        <v>720.6083788665362</v>
+        <v>901.8306921763932</v>
       </c>
       <c r="X15" t="n">
-        <v>512.7568786610034</v>
+        <v>693.9791919708604</v>
       </c>
       <c r="Y15" t="n">
-        <v>304.9965798960495</v>
+        <v>486.2188932059065</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5513,7 +5513,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5549,16 +5549,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5595,43 +5595,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>872.2223827727877</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>698.8050382234566</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K19" t="n">
         <v>19.28114311021272</v>
@@ -5701,22 +5701,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,25 +5853,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>964.0571555106362</v>
@@ -6096,19 +6096,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U26" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>327.2640844659515</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>119.4125842604187</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>119.4125842604187</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6415,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>726.0875267598396</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C30" t="n">
-        <v>726.0875267598396</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y30" t="n">
-        <v>894.3028637799077</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.2549444941228</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C33" t="n">
-        <v>346.8019152129958</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D33" t="n">
-        <v>197.8675055517446</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="E33" t="n">
-        <v>38.63005054628906</v>
+        <v>47.00243326853465</v>
       </c>
       <c r="F33" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6789,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6886,22 +6886,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,25 +6956,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
         <v>262.7299197543128</v>
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>835.6680832615</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C38" t="n">
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>502.6601697108322</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>328.2071404297052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
         <v>20.03527576299844</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X39" t="n">
-        <v>710.420468475786</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y39" t="n">
-        <v>502.6601697108322</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,22 +7430,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
         <v>506.1786963984129</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,13 +7500,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.47235360622864</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7606,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>726.0875267598396</v>
+        <v>592.3686913742599</v>
       </c>
       <c r="C45" t="n">
-        <v>726.0875267598396</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="D45" t="n">
-        <v>577.1531170985884</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E45" t="n">
         <v>417.9156620931329</v>
@@ -7737,13 +7737,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>726.0875267598396</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X45" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y45" t="n">
-        <v>726.0875267598396</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8784,10 +8784,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,7 +11148,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,16 +11385,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,10 +22635,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>75.72709062278427</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22671,28 +22671,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.3209731456163</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22793,19 +22793,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.13979328157633</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,13 +22835,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23024,25 +23024,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23072,7 +23072,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23106,10 +23106,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>100.2899173227108</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.34671457323969</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23233,13 +23233,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>256.9814837713026</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>134.4673078385578</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,10 +23631,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>171.1963884485247</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,19 +23732,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23789,13 +23789,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.241409142173083</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23914,7 +23914,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>50.10013888409014</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="22">
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24336,10 +24336,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24461,10 +24461,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>13.10531749779258</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="28">
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>190.3409453813598</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>136.6259469638832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24917,10 +24917,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>332.3387697201343</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>117.6251351366452</v>
       </c>
       <c r="G33" t="n">
-        <v>118.1880988014951</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>127.8627523801188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25096,10 +25096,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,22 +25239,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.7353484033027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,10 +25357,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,22 +25521,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>70.7550934569993</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>126.3558361428136</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,16 +25631,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>278.8969609161378</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.3904765850695</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>30.56581806583503</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,13 +25761,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,19 +25865,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F44" t="n">
-        <v>216.5306486674267</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>24.50298623582958</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>136.2579673353708</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481985.0402310079</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481985.040231008</v>
+        <v>481985.0402310078</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29260.68891881201</v>
+        <v>-29652.91916435758</v>
       </c>
       <c r="C6" t="n">
-        <v>51508.74261273572</v>
+        <v>51116.51236719017</v>
       </c>
       <c r="D6" t="n">
-        <v>51508.74261273571</v>
+        <v>51116.51236719017</v>
       </c>
       <c r="E6" t="n">
-        <v>85136.34261273577</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="F6" t="n">
-        <v>85136.34261273578</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="G6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="H6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="I6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="J6" t="n">
-        <v>22076.40001362948</v>
+        <v>21684.16976808394</v>
       </c>
       <c r="K6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="L6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="M6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="N6" t="n">
-        <v>85136.34261273571</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="O6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="P6" t="n">
-        <v>85136.34261273575</v>
+        <v>84744.11236719017</v>
       </c>
     </row>
   </sheetData>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,10 +35024,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35504,10 +35504,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,13 +37631,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
